--- a/Poutre bois/caracB.xlsx
+++ b/Poutre bois/caracB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre Tromas\Desktop\Python\Poutre bois\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F1EC20-9C09-409E-82D9-C0405F5EBE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF64A7F-44A7-4115-A83D-45A9BF210020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFEA2B99-EB6C-423B-82F9-F4E0BC02A88E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>Caractéristiques</t>
   </si>
@@ -278,6 +278,42 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>1000+</t>
+  </si>
+  <si>
+    <t>1000-</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Finlande,etc</t>
   </si>
 </sst>
 </file>
@@ -1189,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468024BF-D118-41D6-BD04-541F40ABE1CA}">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AS10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,7 +1236,7 @@
     <col min="1" max="1" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1282,8 +1318,47 @@
       <c r="AA1" s="74" t="s">
         <v>46</v>
       </c>
+      <c r="AG1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -1365,8 +1440,47 @@
       <c r="AA2" t="s">
         <v>43</v>
       </c>
+      <c r="AG2">
+        <v>0.7</v>
+      </c>
+      <c r="AH2">
+        <v>0.7</v>
+      </c>
+      <c r="AI2">
+        <v>0.7</v>
+      </c>
+      <c r="AJ2">
+        <v>0.7</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>0.7</v>
+      </c>
+      <c r="AM2">
+        <v>0.7</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0.7</v>
+      </c>
+      <c r="AP2">
+        <v>0.7</v>
+      </c>
+      <c r="AQ2">
+        <v>0.5</v>
+      </c>
+      <c r="AR2">
+        <v>0.6</v>
+      </c>
+      <c r="AS2">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
@@ -1448,8 +1562,47 @@
       <c r="AA3" t="s">
         <v>43</v>
       </c>
+      <c r="AG3">
+        <v>0.5</v>
+      </c>
+      <c r="AH3">
+        <v>0.5</v>
+      </c>
+      <c r="AI3">
+        <v>0.7</v>
+      </c>
+      <c r="AJ3">
+        <v>0.7</v>
+      </c>
+      <c r="AK3">
+        <v>0.9</v>
+      </c>
+      <c r="AL3">
+        <v>0.7</v>
+      </c>
+      <c r="AM3">
+        <v>0.5</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0.5</v>
+      </c>
+      <c r="AP3">
+        <v>0.5</v>
+      </c>
+      <c r="AQ3">
+        <v>0.2</v>
+      </c>
+      <c r="AR3">
+        <v>0.2</v>
+      </c>
+      <c r="AS3">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>15</v>
       </c>
@@ -1531,8 +1684,47 @@
       <c r="AA4" t="s">
         <v>43</v>
       </c>
+      <c r="AG4">
+        <v>0.3</v>
+      </c>
+      <c r="AH4">
+        <v>0.3</v>
+      </c>
+      <c r="AI4">
+        <v>0.6</v>
+      </c>
+      <c r="AJ4">
+        <v>0.6</v>
+      </c>
+      <c r="AK4">
+        <v>0.8</v>
+      </c>
+      <c r="AL4">
+        <v>0.6</v>
+      </c>
+      <c r="AM4">
+        <v>0.3</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0.2</v>
+      </c>
+      <c r="AP4">
+        <v>0.2</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
@@ -1615,7 +1807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>19</v>
       </c>
@@ -1698,7 +1890,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>21</v>
       </c>
@@ -1781,7 +1973,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>23</v>
       </c>
@@ -1864,7 +2056,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>25</v>
       </c>
@@ -1947,7 +2139,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>27</v>
       </c>
